--- a/www/IndicatorsPerCountry/Haiti_GDPperCapita_TerritorialRef_1946_2012_CCode_332.xlsx
+++ b/www/IndicatorsPerCountry/Haiti_GDPperCapita_TerritorialRef_1946_2012_CCode_332.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Haiti_GDPperCapita_TerritorialRef_1946_2012_CCode_332.xlsx
+++ b/www/IndicatorsPerCountry/Haiti_GDPperCapita_TerritorialRef_1946_2012_CCode_332.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>896</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>1096</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1196</t>
-  </si>
-  <si>
-    <t>1268</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1141</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>755</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>686</t>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1675</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1678</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1628.71878283961</t>
+  </si>
+  <si>
+    <t>1535.97067314801</t>
+  </si>
+  <si>
+    <t>1443.18084091839</t>
+  </si>
+  <si>
+    <t>1262.33705693887</t>
+  </si>
+  <si>
+    <t>1378.54169035882</t>
+  </si>
+  <si>
+    <t>1426.41255434455</t>
+  </si>
+  <si>
+    <t>1456.23386268096</t>
+  </si>
+  <si>
+    <t>1480.57692149792</t>
+  </si>
+  <si>
+    <t>1513.33182717616</t>
+  </si>
+  <si>
+    <t>1520.72923536376</t>
+  </si>
+  <si>
+    <t>1501.1024655367</t>
+  </si>
+  <si>
+    <t>1494.18367730333</t>
+  </si>
+  <si>
+    <t>1495.89212797309</t>
+  </si>
+  <si>
+    <t>1439.20765878902</t>
+  </si>
+  <si>
+    <t>1461.80004935298</t>
+  </si>
+  <si>
+    <t>1493.03818834523</t>
+  </si>
+  <si>
+    <t>1541.7674392198</t>
+  </si>
+  <si>
+    <t>1555.49319297435</t>
+  </si>
+  <si>
+    <t>1604.11272090479</t>
+  </si>
+  <si>
+    <t>1556.5504333413</t>
+  </si>
+  <si>
+    <t>1648</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1728</t>
   </si>
   <si>
     <t>Description</t>
@@ -396,7 +420,7 @@
         <v>1949.0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -413,7 +437,7 @@
         <v>1950.0</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -430,7 +454,7 @@
         <v>1951.0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -447,7 +471,7 @@
         <v>1952.0</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +488,7 @@
         <v>1953.0</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -481,7 +505,7 @@
         <v>1954.0</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -515,7 +539,7 @@
         <v>1956.0</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -532,7 +556,7 @@
         <v>1957.0</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +573,7 @@
         <v>1958.0</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +590,7 @@
         <v>1959.0</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -583,7 +607,7 @@
         <v>1960.0</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +624,7 @@
         <v>1961.0</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +641,7 @@
         <v>1962.0</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -634,7 +658,7 @@
         <v>1963.0</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -651,7 +675,7 @@
         <v>1964.0</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -668,7 +692,7 @@
         <v>1965.0</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -685,7 +709,7 @@
         <v>1966.0</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -702,7 +726,7 @@
         <v>1967.0</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -719,7 +743,7 @@
         <v>1968.0</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -736,7 +760,7 @@
         <v>1969.0</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -753,7 +777,7 @@
         <v>1970.0</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -770,7 +794,7 @@
         <v>1971.0</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -787,7 +811,7 @@
         <v>1972.0</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -804,7 +828,7 @@
         <v>1973.0</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +845,7 @@
         <v>1974.0</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -838,7 +862,7 @@
         <v>1975.0</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -855,7 +879,7 @@
         <v>1976.0</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -872,7 +896,7 @@
         <v>1977.0</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +913,7 @@
         <v>1978.0</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -906,7 +930,7 @@
         <v>1979.0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -923,7 +947,7 @@
         <v>1980.0</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +964,7 @@
         <v>1981.0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -957,7 +981,7 @@
         <v>1982.0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -974,7 +998,7 @@
         <v>1983.0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -991,7 +1015,7 @@
         <v>1984.0</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1008,7 +1032,7 @@
         <v>1985.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1025,7 +1049,7 @@
         <v>1986.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1042,7 +1066,7 @@
         <v>1987.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -1059,7 +1083,7 @@
         <v>1988.0</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -1076,7 +1100,7 @@
         <v>1989.0</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1304,7 @@
         <v>2001.0</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
@@ -1297,7 +1321,7 @@
         <v>2002.0</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -1314,7 +1338,7 @@
         <v>2003.0</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61">
@@ -1331,7 +1355,7 @@
         <v>2004.0</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
@@ -1348,7 +1372,7 @@
         <v>2005.0</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63">
@@ -1365,7 +1389,7 @@
         <v>2006.0</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64">
@@ -1382,7 +1406,7 @@
         <v>2007.0</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
@@ -1399,7 +1423,143 @@
         <v>2008.0</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1417,50 +1577,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
